--- a/Risk Log.xlsx
+++ b/Risk Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0fb6398448fbc514/Excel Tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\GitHub\risk-log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1100" documentId="11_963CE725E2B1C6F4ECF535EC832DF53AEDC02C55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{198A8051-F2E1-467F-8AAD-AFF145578DCF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D6704-D3A3-4FFA-9540-5AAA2CF2A34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RiskLog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="91">
   <si>
     <t>Impact</t>
   </si>
@@ -245,96 +245,6 @@
     <t>RISKMGMT-1</t>
   </si>
   <si>
-    <t>Lack of communication causing confusion</t>
-  </si>
-  <si>
-    <t>Boris Karl Schlein</t>
-  </si>
-  <si>
-    <t>RISKMGMT-2</t>
-  </si>
-  <si>
-    <t>Legal regulations cause project delay</t>
-  </si>
-  <si>
-    <t>RISKMGMT-3</t>
-  </si>
-  <si>
-    <t>Extreme weather causes delay of deliveries (Acts of God)</t>
-  </si>
-  <si>
-    <t>RISKMGMT-4</t>
-  </si>
-  <si>
-    <t>Project goals not defined</t>
-  </si>
-  <si>
-    <t>RISKMGMT-5</t>
-  </si>
-  <si>
-    <t>Project purpose is not defined</t>
-  </si>
-  <si>
-    <t>RISKMGMT-6</t>
-  </si>
-  <si>
-    <t>Example Risk 01</t>
-  </si>
-  <si>
-    <t>RISKMGMT-7</t>
-  </si>
-  <si>
-    <t>Example Risk 02</t>
-  </si>
-  <si>
-    <t>RISKMGMT-8</t>
-  </si>
-  <si>
-    <t>Example Risk 03</t>
-  </si>
-  <si>
-    <t>RISKMGMT-9</t>
-  </si>
-  <si>
-    <t>Example Risk 04</t>
-  </si>
-  <si>
-    <t>RISKMGMT-10</t>
-  </si>
-  <si>
-    <t>Example Risk 05</t>
-  </si>
-  <si>
-    <t>RISKMGMT-11</t>
-  </si>
-  <si>
-    <t>Example Risk 06</t>
-  </si>
-  <si>
-    <t>RISKMGMT-12</t>
-  </si>
-  <si>
-    <t>Example Risk 08</t>
-  </si>
-  <si>
-    <t>RISKMGMT-13</t>
-  </si>
-  <si>
-    <t>Example Risk 09</t>
-  </si>
-  <si>
-    <t>RISKMGMT-14</t>
-  </si>
-  <si>
-    <t>Example Risk 10</t>
-  </si>
-  <si>
-    <t>RISKMGMT-15</t>
-  </si>
-  <si>
-    <t>Example Risk 11</t>
-  </si>
-  <si>
     <t>RISKMGMT</t>
   </si>
   <si>
@@ -374,9 +284,6 @@
     <t>False</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>https://[your-name].atlassian.net</t>
   </si>
   <si>
@@ -401,7 +308,13 @@
     <t>BL.showValues</t>
   </si>
   <si>
-    <t>5jekl30lrms0b8e2b9bc0c1ea</t>
+    <t>Horst Seehofer</t>
+  </si>
+  <si>
+    <t>5jfewewfedc0c1ea</t>
+  </si>
+  <si>
+    <t>Example Risk</t>
   </si>
 </sst>
 </file>
@@ -411,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ \(ddd\)"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,12 +567,6 @@
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1453,7 +1360,7 @@
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyAlignment="1">
@@ -1620,13 +1527,7 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1637,9 +1538,6 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1676,9 +1574,6 @@
     <xf numFmtId="0" fontId="26" fillId="33" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="55" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
@@ -1698,9 +1593,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyBorder="1"/>
@@ -1712,9 +1604,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1801,19 +1690,16 @@
     <xf numFmtId="0" fontId="26" fillId="33" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="55" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1853,9 +1739,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="52" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1905,7 +1788,7 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" hidden="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" hidden="1"/>
   </cellStyles>
-  <dxfs count="192">
+  <dxfs count="134">
     <dxf>
       <font>
         <color theme="0"/>
@@ -1996,6 +1879,179 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF663300"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF33CC33"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF0099FF"/>
         </patternFill>
       </fill>
@@ -2029,179 +2085,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF663300"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF33CC33"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2223,12 +2106,12 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="2"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
+        <left style="thick">
           <color auto="1"/>
         </left>
         <right/>
@@ -2253,20 +2136,11 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="hair">
           <color auto="1"/>
         </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
+        <right/>
         <top/>
         <bottom/>
       </border>
@@ -2288,13 +2162,6 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="hair">
           <color auto="1"/>
@@ -2323,13 +2190,6 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="hair">
           <color auto="1"/>
@@ -2358,13 +2218,6 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="hair">
           <color auto="1"/>
@@ -2393,61 +2246,8 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
           <color auto="1"/>
         </left>
         <right style="hair">
@@ -2474,12 +2274,13 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="hair">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
         <top/>
         <bottom/>
       </border>
@@ -2501,8 +2302,1603 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ \(ddd\)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ \(ddd\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ \(ddd\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="hair">
           <color auto="1"/>
@@ -2541,15 +3937,74 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="hair">
           <color auto="1"/>
         </left>
-        <right style="hair">
+        <right style="medium">
           <color auto="1"/>
         </right>
         <top/>
         <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2583,6 +4038,36 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2610,6 +4095,31 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2640,6 +4150,33 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2666,6 +4203,31 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2695,6 +4257,31 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="10"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2713,2341 +4300,6 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0099FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF663300"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF33CC33"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0099FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF663300"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF33CC33"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF663300"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF33CC33"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ \(ddd\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ \(ddd\)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ \(ddd\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="10"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
         <right style="hair">
           <color auto="1"/>
         </right>
@@ -5179,7 +4431,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5217,7 +4469,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5255,7 +4507,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5293,7 +4545,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5331,7 +4583,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5369,7 +4621,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5502,53 +4754,29 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>RiskHistory!$B$3:$B$8</c:f>
+              <c:f>RiskHistory!$B$3:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd\ \(ddd\)</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44470</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44501</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44562</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44593</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44621</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RiskHistory!$C$3:$C$8</c:f>
+              <c:f>RiskHistory!$C$3:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -5583,53 +4811,29 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>RiskHistory!$B$3:$B$8</c:f>
+              <c:f>RiskHistory!$B$3:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd\ \(ddd\)</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44470</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44501</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44562</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44593</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44621</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RiskHistory!$D$3:$D$8</c:f>
+              <c:f>RiskHistory!$D$3:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -5662,54 +4866,30 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>RiskHistory!$B$3:$B$8</c:f>
+              <c:f>RiskHistory!$B$3:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd\ \(ddd\)</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44470</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44501</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44562</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44593</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44621</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RiskHistory!$E$3:$E$8</c:f>
+              <c:f>RiskHistory!$E$3:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5741,54 +4921,30 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>RiskHistory!$B$3:$B$8</c:f>
+              <c:f>RiskHistory!$B$3:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd\ \(ddd\)</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44470</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44501</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44562</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44593</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44621</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RiskHistory!$F$3:$F$8</c:f>
+              <c:f>RiskHistory!$F$3:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5820,54 +4976,30 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>RiskHistory!$B$3:$B$8</c:f>
+              <c:f>RiskHistory!$B$3:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd\ \(ddd\)</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44470</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44501</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44562</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44593</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44621</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RiskHistory!$G$3:$G$8</c:f>
+              <c:f>RiskHistory!$G$3:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5899,53 +5031,29 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>RiskHistory!$B$3:$B$8</c:f>
+              <c:f>RiskHistory!$B$3:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd\ \(ddd\)</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44470</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44501</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44562</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44593</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44621</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RiskHistory!$H$3:$H$8</c:f>
+              <c:f>RiskHistory!$H$3:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -6609,68 +5717,68 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_RiskLog" displayName="TBL_RiskLog" ref="A2:T18" totalsRowCount="1" headerRowDxfId="191" dataDxfId="190">
-  <autoFilter ref="A2:T17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T16">
-    <sortCondition descending="1" ref="L2:L16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TBL_RiskLog" displayName="TBL_RiskLog" ref="A2:T4" totalsRowCount="1" headerRowDxfId="133" dataDxfId="132">
+  <autoFilter ref="A2:T3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T3">
+    <sortCondition descending="1" ref="L2:L3"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key" dataDxfId="189" totalsRowDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Jira" dataDxfId="188" totalsRowDxfId="45">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Key" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Jira" dataDxfId="129" totalsRowDxfId="128">
       <calculatedColumnFormula>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Summary" dataDxfId="187" totalsRowDxfId="44">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Summary" dataDxfId="127" totalsRowDxfId="126">
       <calculatedColumnFormula>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Reporter" dataDxfId="186" totalsRowDxfId="43">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Reporter" dataDxfId="125" totalsRowDxfId="124">
       <calculatedColumnFormula>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Owner" dataDxfId="143" totalsRowDxfId="42">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Owner" dataDxfId="123" totalsRowDxfId="122">
       <calculatedColumnFormula>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status" dataDxfId="185" totalsRowDxfId="41">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status" dataDxfId="121" totalsRowDxfId="120">
       <calculatedColumnFormula>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{A027CD20-716C-411A-9CAD-C786ACB3094B}" name="Problem" dataDxfId="150" totalsRowDxfId="40">
+    <tableColumn id="22" xr3:uid="{A027CD20-716C-411A-9CAD-C786ACB3094B}" name="Problem" dataDxfId="119" totalsRowDxfId="118">
       <calculatedColumnFormula>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Resolution" dataDxfId="142" totalsRowDxfId="39">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Resolution" dataDxfId="117" totalsRowDxfId="116">
       <calculatedColumnFormula>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Impact" dataDxfId="149" totalsRowDxfId="38">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Impact" dataDxfId="115" totalsRowDxfId="114">
       <calculatedColumnFormula>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Likelihood" dataDxfId="148" totalsRowDxfId="37">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Likelihood" dataDxfId="113" totalsRowDxfId="112">
       <calculatedColumnFormula>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Severity" dataDxfId="147" totalsRowDxfId="36">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Severity" dataDxfId="111" totalsRowDxfId="110">
       <calculatedColumnFormula>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Severity Index" dataDxfId="146" totalsRowDxfId="35">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Severity Index" dataDxfId="109" totalsRowDxfId="108">
       <calculatedColumnFormula>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Raised" dataDxfId="184" totalsRowDxfId="34">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Raised" dataDxfId="107" totalsRowDxfId="106">
       <calculatedColumnFormula>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{41921F36-6722-466E-B96C-3CE3D04DE11E}" name="Resolved" dataDxfId="145" totalsRowDxfId="33">
+    <tableColumn id="12" xr3:uid="{41921F36-6722-466E-B96C-3CE3D04DE11E}" name="Resolved" dataDxfId="105" totalsRowDxfId="104">
       <calculatedColumnFormula>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4DFD5776-231C-42DA-AF02-9B6B6FA8EF68}" name="BL.existsInExport" dataDxfId="144" totalsRowDxfId="32">
+    <tableColumn id="11" xr3:uid="{4DFD5776-231C-42DA-AF02-9B6B6FA8EF68}" name="BL.existsInExport" dataDxfId="103" totalsRowDxfId="102">
       <calculatedColumnFormula>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1E56F441-86B5-49C2-ACCA-DF6959CA886D}" name="BL.showValues" dataDxfId="141" totalsRowDxfId="31">
+    <tableColumn id="14" xr3:uid="{1E56F441-86B5-49C2-ACCA-DF6959CA886D}" name="BL.showValues" dataDxfId="101" totalsRowDxfId="100">
       <calculatedColumnFormula>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="BL.showInMatrix" dataDxfId="183" totalsRowDxfId="30">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="BL.showInMatrix" dataDxfId="99" totalsRowDxfId="98">
       <calculatedColumnFormula>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="BL.impactIndex" dataDxfId="182" totalsRowDxfId="29">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="BL.impactIndex" dataDxfId="97" totalsRowDxfId="96">
       <calculatedColumnFormula>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="BL.likelihoodIndex" dataDxfId="181" totalsRowDxfId="28">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="BL.likelihoodIndex" dataDxfId="95" totalsRowDxfId="94">
       <calculatedColumnFormula>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BL.coordinates" dataDxfId="180" totalsRowDxfId="27">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BL.coordinates" dataDxfId="93" totalsRowDxfId="92">
       <calculatedColumnFormula>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6703,17 +5811,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle6" displayName="Tabelle6" ref="B2:I8" totalsRowShown="0">
-  <autoFilter ref="B2:I8" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle6" displayName="Tabelle6" ref="B2:I4" totalsRowShown="0">
+  <autoFilter ref="B2:I4" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="179"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Unspecified" dataDxfId="178"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Very Low" dataDxfId="177"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Low" dataDxfId="176"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Medium" dataDxfId="175"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="High" dataDxfId="174"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Critical" dataDxfId="173"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Total" dataDxfId="172">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Unspecified" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Very Low" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Low" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Medium" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="High" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Critical" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Total" dataDxfId="84">
       <calculatedColumnFormula>SUM(Tabelle6[[#This Row],[Unspecified]:[Critical]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6722,27 +5830,27 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="EXP_Risks" displayName="EXP_Risks" ref="A1:R17" totalsRowCount="1" headerRowDxfId="171" totalsRowDxfId="169" tableBorderDxfId="170">
-  <autoFilter ref="A1:R16" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="EXP_Risks" displayName="EXP_Risks" ref="A1:R3" totalsRowCount="1" headerRowDxfId="83" totalsRowDxfId="81" tableBorderDxfId="82">
+  <autoFilter ref="A1:R2" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="issueKey" dataDxfId="102" totalsRowDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{AD6A686B-8F8B-4FBE-B181-B817BB14804F}" name="issueID" dataDxfId="101" totalsRowDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{9CC9F1D9-CD69-4790-A219-2EFAA2BFCA2D}" name="issueType" dataDxfId="100" totalsRowDxfId="82"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="Reporter" dataDxfId="99" totalsRowDxfId="81"/>
-    <tableColumn id="10" xr3:uid="{66525FB4-7D9E-4BDB-8167-3CE5128D4A64}" name="Reporter ID" dataDxfId="98" totalsRowDxfId="80"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="Assignee" dataDxfId="97" totalsRowDxfId="79"/>
-    <tableColumn id="11" xr3:uid="{F3D52168-82EC-47B5-8E46-99B870FCF857}" name="Assignee ID" dataDxfId="96" totalsRowDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Summary" dataDxfId="95" totalsRowDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Status" dataDxfId="94" totalsRowDxfId="76"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="Resolution" dataDxfId="93" totalsRowDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{2CE72620-5AA0-409F-9521-C74F80C796B3}" name="Priority" dataDxfId="92" totalsRowDxfId="74"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="Created" dataDxfId="91" totalsRowDxfId="73"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="Resolved" dataDxfId="90" totalsRowDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{EA48B66D-5068-4E9E-80EA-183BE54B7FB5}" name="Flagged" dataDxfId="89" totalsRowDxfId="71"/>
-    <tableColumn id="13" xr3:uid="{B8D55795-6D07-42AC-AB88-61EC4671F14F}" name="Labels" dataDxfId="88" totalsRowDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="field::impact" dataDxfId="87" totalsRowDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="field::likelihood" dataDxfId="86" totalsRowDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="BL.existsInRiskLog" dataDxfId="85" totalsRowDxfId="67">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="issueKey" dataDxfId="80" totalsRowDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{AD6A686B-8F8B-4FBE-B181-B817BB14804F}" name="issueID" dataDxfId="79" totalsRowDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{9CC9F1D9-CD69-4790-A219-2EFAA2BFCA2D}" name="issueType" dataDxfId="78" totalsRowDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="Reporter" dataDxfId="77" totalsRowDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{66525FB4-7D9E-4BDB-8167-3CE5128D4A64}" name="Reporter ID" dataDxfId="76" totalsRowDxfId="40"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="Assignee" dataDxfId="75" totalsRowDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{F3D52168-82EC-47B5-8E46-99B870FCF857}" name="Assignee ID" dataDxfId="74" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Summary" dataDxfId="73" totalsRowDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Status" dataDxfId="72" totalsRowDxfId="36"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="Resolution" dataDxfId="71" totalsRowDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{2CE72620-5AA0-409F-9521-C74F80C796B3}" name="Priority" dataDxfId="70" totalsRowDxfId="34"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="Created" dataDxfId="69" totalsRowDxfId="33"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="Resolved" dataDxfId="68" totalsRowDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{EA48B66D-5068-4E9E-80EA-183BE54B7FB5}" name="Flagged" dataDxfId="67" totalsRowDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{B8D55795-6D07-42AC-AB88-61EC4671F14F}" name="Labels" dataDxfId="66" totalsRowDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="field::impact" dataDxfId="65" totalsRowDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="field::likelihood" dataDxfId="64" totalsRowDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="BL.existsInRiskLog" dataDxfId="63" totalsRowDxfId="27">
       <calculatedColumnFormula>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6751,36 +5859,36 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="MD_Impact" displayName="MD_Impact" ref="A11:C17" totalsRowShown="0" dataDxfId="168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="MD_Impact" displayName="MD_Impact" ref="A11:C17" totalsRowShown="0" dataDxfId="62">
   <autoFilter ref="A11:C17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name" dataDxfId="167"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Order" dataDxfId="166"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="165"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Order" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="MD_Likelihood" displayName="MD_Likelihood" ref="A2:C8" totalsRowShown="0" dataDxfId="164">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="MD_Likelihood" displayName="MD_Likelihood" ref="A2:C8" totalsRowShown="0" dataDxfId="58">
   <autoFilter ref="A2:C8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name" dataDxfId="163"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Order" dataDxfId="162"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description" dataDxfId="161"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Order" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="MD_RiskStrategies" displayName="MD_RiskStrategies" ref="A52:C56" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="MD_RiskStrategies" displayName="MD_RiskStrategies" ref="A52:C56" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A52:C56" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name" dataDxfId="158"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Order" dataDxfId="157"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="156"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Order" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6802,18 +5910,18 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="MD_SeverityMapping" displayName="MD_SeverityMapping" ref="A59:D95" totalsRowShown="0" dataDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="MD_SeverityMapping" displayName="MD_SeverityMapping" ref="A59:D95" totalsRowShown="0" dataDxfId="49">
   <autoFilter ref="A59:D95" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:E61">
     <sortCondition ref="A2:A26"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Coordinates" dataDxfId="154">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Coordinates" dataDxfId="48">
       <calculatedColumnFormula>"i"&amp;MD_SeverityMapping[[#This Row],[Impact]]&amp;"l"&amp;MD_SeverityMapping[[#This Row],[Likelihood]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Impact" dataDxfId="153"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Likelihood" dataDxfId="152"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Severity" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Impact" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Likelihood" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Severity" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7097,13 +6205,13 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7130,39 +6238,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="str">
+      <c r="A1" s="123" t="str">
         <f>Logic!$B$4</f>
         <v/>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="132" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="133"/>
-      <c r="F1" s="134" t="s">
+      <c r="E1" s="126"/>
+      <c r="F1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="135"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="137" t="s">
+      <c r="G1" s="128"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="140" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="141"/>
-      <c r="O1" s="128" t="s">
+      <c r="N1" s="134"/>
+      <c r="O1" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
     </row>
     <row r="2" spans="1:20" ht="89.4" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
@@ -7174,1294 +6282,160 @@
       <c r="C2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="89" t="s">
+      <c r="N2" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="99" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="99" t="s">
+      <c r="O2" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="70" t="s">
+      <c r="S2" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="71" t="s">
+      <c r="T2" s="68" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="91" t="s">
-        <v>69</v>
+      <c r="A3" s="86" t="s">
+        <v>66</v>
       </c>
       <c r="B3" s="52" t="str">
         <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
         <v>Link</v>
       </c>
-      <c r="C3" s="67" t="str">
+      <c r="C3" s="64" t="str">
         <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Legal regulations cause project delay</v>
-      </c>
-      <c r="D3" s="126" t="str">
+        <v>Example Risk</v>
+      </c>
+      <c r="D3" s="120" t="str">
         <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
+        <v>Horst Seehofer</v>
       </c>
       <c r="E3" s="56" t="str">
         <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="F3" s="95" t="str">
+        <v/>
+      </c>
+      <c r="F3" s="89" t="str">
         <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>Avoid</v>
-      </c>
-      <c r="G3" s="84">
+        <v>Mitigate</v>
+      </c>
+      <c r="G3" s="80">
         <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="85" t="str">
+        <v>0</v>
+      </c>
+      <c r="H3" s="81" t="str">
         <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
         <v/>
       </c>
       <c r="I3" s="53" t="str">
         <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Severe</v>
-      </c>
-      <c r="J3" s="65" t="str">
+        <v>Minor</v>
+      </c>
+      <c r="J3" s="74" t="str">
         <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Almost Certain</v>
-      </c>
-      <c r="K3" s="59" t="str">
+        <v>Possible</v>
+      </c>
+      <c r="K3" s="58" t="str">
         <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>Critical</v>
-      </c>
-      <c r="L3" s="61">
+        <v>Low</v>
+      </c>
+      <c r="L3" s="59">
         <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>5</v>
-      </c>
-      <c r="M3" s="100">
+        <v>2</v>
+      </c>
+      <c r="M3" s="94">
         <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44594</v>
-      </c>
-      <c r="N3" s="101" t="str">
+        <v>44597</v>
+      </c>
+      <c r="N3" s="95" t="str">
         <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
         <v/>
       </c>
-      <c r="O3" s="72">
+      <c r="O3" s="69">
         <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
         <v>1</v>
       </c>
-      <c r="P3" s="72" t="b">
+      <c r="P3" s="69" t="b">
         <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="72">
+      <c r="Q3" s="69">
         <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="R3" s="72">
+      <c r="R3" s="69">
         <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>5</v>
-      </c>
-      <c r="S3" s="72">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
-        <v>5</v>
-      </c>
-      <c r="T3" s="73" t="str">
-        <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
-        <v>i5l5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="52" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
-        <v>Link</v>
-      </c>
-      <c r="C4" s="67" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Project purpose is not defined</v>
-      </c>
-      <c r="D4" s="127" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="E4" s="57" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v/>
-      </c>
-      <c r="F4" s="96" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>Avoid</v>
-      </c>
-      <c r="G4" s="84">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="85" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
-        <v/>
-      </c>
-      <c r="I4" s="51" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Moderate</v>
-      </c>
-      <c r="J4" s="66" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Almost Certain</v>
-      </c>
-      <c r="K4" s="58" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>High</v>
-      </c>
-      <c r="L4" s="60">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>4</v>
-      </c>
-      <c r="M4" s="100">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44594</v>
-      </c>
-      <c r="N4" s="101" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
-        <v/>
-      </c>
-      <c r="O4" s="74">
-        <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P4" s="74" t="b">
-        <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q4" s="74">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R4" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>3</v>
-      </c>
-      <c r="S4" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
-        <v>5</v>
-      </c>
-      <c r="T4" s="75" t="str">
-        <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
-        <v>i3l5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="52" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
-        <v>Link</v>
-      </c>
-      <c r="C5" s="78" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Example Risk 04</v>
-      </c>
-      <c r="D5" s="126" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="E5" s="56" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v/>
-      </c>
-      <c r="F5" s="95" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>Accept</v>
-      </c>
-      <c r="G5" s="84">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="86" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
-        <v/>
-      </c>
-      <c r="I5" s="53" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Significant</v>
-      </c>
-      <c r="J5" s="65" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Almost Certain</v>
-      </c>
-      <c r="K5" s="59" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>High</v>
-      </c>
-      <c r="L5" s="61">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>4</v>
-      </c>
-      <c r="M5" s="100">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44973</v>
-      </c>
-      <c r="N5" s="101" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
-        <v/>
-      </c>
-      <c r="O5" s="72">
-        <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P5" s="72" t="b">
-        <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q5" s="72">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R5" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>4</v>
-      </c>
-      <c r="S5" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
-        <v>5</v>
-      </c>
-      <c r="T5" s="73" t="str">
-        <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
-        <v>i4l5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="52" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
-        <v>Link</v>
-      </c>
-      <c r="C6" s="67" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Extreme weather causes delay of deliveries (Acts of God)</v>
-      </c>
-      <c r="D6" s="126" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="E6" s="56" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="F6" s="95" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>Accept</v>
-      </c>
-      <c r="G6" s="84">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="85" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
-        <v/>
-      </c>
-      <c r="I6" s="53" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Significant</v>
-      </c>
-      <c r="J6" s="65" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Unlikely</v>
-      </c>
-      <c r="K6" s="59" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>Medium</v>
-      </c>
-      <c r="L6" s="61">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>3</v>
-      </c>
-      <c r="M6" s="100">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44594</v>
-      </c>
-      <c r="N6" s="101" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
-        <v/>
-      </c>
-      <c r="O6" s="72">
-        <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P6" s="72" t="b">
-        <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="72">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R6" s="72">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>4</v>
-      </c>
-      <c r="S6" s="72">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
         <v>2</v>
       </c>
-      <c r="T6" s="73" t="str">
-        <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
-        <v>i4l2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="52" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
-        <v>Link</v>
-      </c>
-      <c r="C7" s="67" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Example Risk 02</v>
-      </c>
-      <c r="D7" s="126" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="E7" s="56" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v/>
-      </c>
-      <c r="F7" s="95" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>Accept</v>
-      </c>
-      <c r="G7" s="84">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="85" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
-        <v/>
-      </c>
-      <c r="I7" s="53" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Moderate</v>
-      </c>
-      <c r="J7" s="65" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Possible</v>
-      </c>
-      <c r="K7" s="59" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>Medium</v>
-      </c>
-      <c r="L7" s="61">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>3</v>
-      </c>
-      <c r="M7" s="100">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44973</v>
-      </c>
-      <c r="N7" s="101" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
-        <v/>
-      </c>
-      <c r="O7" s="72">
-        <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P7" s="72" t="b">
-        <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q7" s="72">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R7" s="72">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>3</v>
-      </c>
-      <c r="S7" s="72">
+      <c r="S3" s="69">
         <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
         <v>3</v>
       </c>
-      <c r="T7" s="73" t="str">
-        <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
-        <v>i3l3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="52" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
-        <v>Link</v>
-      </c>
-      <c r="C8" s="78" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Example Risk 09</v>
-      </c>
-      <c r="D8" s="126" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="E8" s="56" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v/>
-      </c>
-      <c r="F8" s="95" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>Accept</v>
-      </c>
-      <c r="G8" s="84">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="86" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
-        <v/>
-      </c>
-      <c r="I8" s="53" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Minor</v>
-      </c>
-      <c r="J8" s="65" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Likely</v>
-      </c>
-      <c r="K8" s="59" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>Medium</v>
-      </c>
-      <c r="L8" s="61">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>3</v>
-      </c>
-      <c r="M8" s="100">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44974</v>
-      </c>
-      <c r="N8" s="101" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
-        <v/>
-      </c>
-      <c r="O8" s="72">
-        <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P8" s="72" t="b">
-        <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="72">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R8" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>2</v>
-      </c>
-      <c r="S8" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
-        <v>4</v>
-      </c>
-      <c r="T8" s="73" t="str">
-        <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
-        <v>i2l4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="52" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
-        <v>Link</v>
-      </c>
-      <c r="C9" s="78" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Example Risk 11</v>
-      </c>
-      <c r="D9" s="126" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="E9" s="56" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v/>
-      </c>
-      <c r="F9" s="95" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>Avoid</v>
-      </c>
-      <c r="G9" s="84">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="86" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
-        <v/>
-      </c>
-      <c r="I9" s="53" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Significant</v>
-      </c>
-      <c r="J9" s="65" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Unlikely</v>
-      </c>
-      <c r="K9" s="59" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>Medium</v>
-      </c>
-      <c r="L9" s="61">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>3</v>
-      </c>
-      <c r="M9" s="100">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44974</v>
-      </c>
-      <c r="N9" s="101" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
-        <v/>
-      </c>
-      <c r="O9" s="72">
-        <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P9" s="72" t="b">
-        <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="72">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R9" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>4</v>
-      </c>
-      <c r="S9" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
-        <v>2</v>
-      </c>
-      <c r="T9" s="73" t="str">
-        <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
-        <v>i4l2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="52" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
-        <v>Link</v>
-      </c>
-      <c r="C10" s="67" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Example Risk 03</v>
-      </c>
-      <c r="D10" s="127" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="E10" s="57" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="96" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>Transfer</v>
-      </c>
-      <c r="G10" s="84">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="85" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
-        <v/>
-      </c>
-      <c r="I10" s="51" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Significant</v>
-      </c>
-      <c r="J10" s="84" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Rare</v>
-      </c>
-      <c r="K10" s="58" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>Low</v>
-      </c>
-      <c r="L10" s="60">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>2</v>
-      </c>
-      <c r="M10" s="100">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44973</v>
-      </c>
-      <c r="N10" s="101" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
-        <v/>
-      </c>
-      <c r="O10" s="74">
-        <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P10" s="74" t="b">
-        <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q10" s="74">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R10" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>4</v>
-      </c>
-      <c r="S10" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="T10" s="75" t="str">
-        <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
-        <v>i4l1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="52" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
-        <v>Link</v>
-      </c>
-      <c r="C11" s="67" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Lack of communication causing confusion</v>
-      </c>
-      <c r="D11" s="126" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="E11" s="56" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v/>
-      </c>
-      <c r="F11" s="95" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>Mitigate</v>
-      </c>
-      <c r="G11" s="84">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="85" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
-        <v/>
-      </c>
-      <c r="I11" s="53" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Minor</v>
-      </c>
-      <c r="J11" s="77" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Possible</v>
-      </c>
-      <c r="K11" s="59" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>Low</v>
-      </c>
-      <c r="L11" s="61">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>2</v>
-      </c>
-      <c r="M11" s="100">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44594</v>
-      </c>
-      <c r="N11" s="101" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
-        <v/>
-      </c>
-      <c r="O11" s="72">
-        <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P11" s="72" t="b">
-        <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="72">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R11" s="72">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>2</v>
-      </c>
-      <c r="S11" s="72">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
-        <v>3</v>
-      </c>
-      <c r="T11" s="73" t="str">
+      <c r="T3" s="70" t="str">
         <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
         <v>i2l3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="52" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
-        <v>Link</v>
-      </c>
-      <c r="C12" s="67" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Example Risk 01</v>
-      </c>
-      <c r="D12" s="127" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="E12" s="57" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="96" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>In Clarification</v>
-      </c>
-      <c r="G12" s="84">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="85" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
-        <v/>
-      </c>
-      <c r="I12" s="51" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Minor</v>
-      </c>
-      <c r="J12" s="84" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Possible</v>
-      </c>
-      <c r="K12" s="58" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>Low</v>
-      </c>
-      <c r="L12" s="60">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>2</v>
-      </c>
-      <c r="M12" s="100">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44973</v>
-      </c>
-      <c r="N12" s="101" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
-        <v/>
-      </c>
-      <c r="O12" s="74">
-        <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P12" s="74" t="b">
-        <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="74">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R12" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>2</v>
-      </c>
-      <c r="S12" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
-        <v>3</v>
-      </c>
-      <c r="T12" s="75" t="str">
-        <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
-        <v>i2l3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="52" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
-        <v>Link</v>
-      </c>
-      <c r="C13" s="78" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Example Risk 05</v>
-      </c>
-      <c r="D13" s="126" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="E13" s="56" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="95" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>Mitigate</v>
-      </c>
-      <c r="G13" s="84">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="86" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
-        <v/>
-      </c>
-      <c r="I13" s="53" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Moderate</v>
-      </c>
-      <c r="J13" s="77" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Rare</v>
-      </c>
-      <c r="K13" s="59" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>Low</v>
-      </c>
-      <c r="L13" s="61">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>2</v>
-      </c>
-      <c r="M13" s="100">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44973</v>
-      </c>
-      <c r="N13" s="101" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
-        <v/>
-      </c>
-      <c r="O13" s="72">
-        <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P13" s="72" t="b">
-        <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="72">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R13" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>3</v>
-      </c>
-      <c r="S13" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="T13" s="73" t="str">
-        <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
-        <v>i3l1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="52" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
-        <v>Link</v>
-      </c>
-      <c r="C14" s="78" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Example Risk 08</v>
-      </c>
-      <c r="D14" s="126" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="E14" s="56" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="95" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>Mitigate</v>
-      </c>
-      <c r="G14" s="84">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="86" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
-        <v/>
-      </c>
-      <c r="I14" s="53" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Moderate</v>
-      </c>
-      <c r="J14" s="77" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Unlikely</v>
-      </c>
-      <c r="K14" s="59" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>Low</v>
-      </c>
-      <c r="L14" s="61">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>2</v>
-      </c>
-      <c r="M14" s="100">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44973</v>
-      </c>
-      <c r="N14" s="101" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
-        <v/>
-      </c>
-      <c r="O14" s="72">
-        <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P14" s="72" t="b">
-        <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="72">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R14" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>3</v>
-      </c>
-      <c r="S14" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
-        <v>2</v>
-      </c>
-      <c r="T14" s="73" t="str">
-        <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
-        <v>i3l2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="52" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
-        <v>Link</v>
-      </c>
-      <c r="C15" s="78" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Example Risk 06</v>
-      </c>
-      <c r="D15" s="126" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="E15" s="56" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v/>
-      </c>
-      <c r="F15" s="95" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>Transfer</v>
-      </c>
-      <c r="G15" s="84">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="86" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
-        <v/>
-      </c>
-      <c r="I15" s="53" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Minor</v>
-      </c>
-      <c r="J15" s="77" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Rare</v>
-      </c>
-      <c r="K15" s="59" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>Negligible</v>
-      </c>
-      <c r="L15" s="61">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>1</v>
-      </c>
-      <c r="M15" s="100">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44973</v>
-      </c>
-      <c r="N15" s="101" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
-        <v/>
-      </c>
-      <c r="O15" s="72">
-        <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P15" s="72" t="b">
-        <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="72">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R15" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>2</v>
-      </c>
-      <c r="S15" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="T15" s="73" t="str">
-        <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
-        <v>i2l1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="52" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
-        <v>Link</v>
-      </c>
-      <c r="C16" s="78" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Example Risk 10</v>
-      </c>
-      <c r="D16" s="126" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="E16" s="56" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="95" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>New</v>
-      </c>
-      <c r="G16" s="84">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="86" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
-        <v/>
-      </c>
-      <c r="I16" s="53" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Unspecified</v>
-      </c>
-      <c r="J16" s="77" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Unspecified</v>
-      </c>
-      <c r="K16" s="59" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>Unspecified</v>
-      </c>
-      <c r="L16" s="61">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="100">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44974</v>
-      </c>
-      <c r="N16" s="101" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
-        <v/>
-      </c>
-      <c r="O16" s="72">
-        <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P16" s="72" t="b">
-        <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="72">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R16" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="73" t="str">
-        <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
-        <v>i0l0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="52" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],HYPERLINK(MasterData!$F$3&amp;"/browse/"&amp;TBL_RiskLog[[#This Row],[Key]],"Link"),"")</f>
-        <v>Link</v>
-      </c>
-      <c r="C17" s="67" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Summary],""),"")</f>
-        <v>Project goals not defined</v>
-      </c>
-      <c r="D17" s="127" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Reporter],""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="E17" s="57" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Assignee])),""),"")</f>
-        <v>Boris Karl Schlein</v>
-      </c>
-      <c r="F17" s="96" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Status]),"")</f>
-        <v>Resolved</v>
-      </c>
-      <c r="G17" s="84">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Flagged])="True"),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="85" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolution])),""),"")</f>
-        <v>Done</v>
-      </c>
-      <c r="I17" s="51" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::impact])),MasterData!$A$12),"")</f>
-        <v>Significant</v>
-      </c>
-      <c r="J17" s="66" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[field::likelihood])),MasterData!$A$3),"")</f>
-        <v>Possible</v>
-      </c>
-      <c r="K17" s="58" t="str">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[BL.coordinates]],MD_SeverityMapping[Coordinates],MD_SeverityMapping[Severity]),"")</f>
-        <v>Medium</v>
-      </c>
-      <c r="L17" s="60">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Severity]],MD_Severity[Name],MD_Severity[Order]),"")</f>
-        <v>3</v>
-      </c>
-      <c r="M17" s="100">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Created]),"")</f>
-        <v>44594</v>
-      </c>
-      <c r="N17" s="101">
-        <f>IF(TBL_RiskLog[[#This Row],[BL.showValues]],IFERROR(IF(ISBLANK(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),"",_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Key]],EXP_Risks[issueKey],EXP_Risks[Resolved])),""),"")</f>
-        <v>44594</v>
-      </c>
-      <c r="O17" s="74">
-        <f>IFERROR(COUNTIF(EXP_Risks[issueKey],TBL_RiskLog[[#This Row],[Key]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P17" s="74" t="b">
-        <f>AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="74">
-        <f>IFERROR(IF(AND(TBL_RiskLog[[#This Row],[Key]]&lt;&gt;"",TBL_RiskLog[[#This Row],[Resolution]]="",TBL_RiskLog[[#This Row],[BL.existsInExport]]&gt;0),1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Impact]],MD_Impact[Name],MD_Impact[Order]),0)</f>
-        <v>4</v>
-      </c>
-      <c r="S17" s="74">
-        <f>IFERROR(_xlfn.XLOOKUP(TBL_RiskLog[[#This Row],[Likelihood]],MD_Likelihood[Name],MD_Likelihood[Order]),0)</f>
-        <v>3</v>
-      </c>
-      <c r="T17" s="75" t="str">
-        <f>"i"&amp;TBL_RiskLog[[#This Row],[BL.impactIndex]]&amp;"l"&amp;TBL_RiskLog[[#This Row],[BL.likelihoodIndex]]</f>
-        <v>i4l3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="75"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="92"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="72"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -8473,8 +6447,8 @@
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:N1"/>
   </mergeCells>
-  <conditionalFormatting sqref="O3:O17">
-    <cfRule type="expression" dxfId="11" priority="2">
+  <conditionalFormatting sqref="O3">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$O3&lt;&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8486,6 +6460,63 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{F461081A-48E1-45A9-9CA0-F3FD9C4E6EB5}">
+            <xm:f>$F3=MasterData!$A$31</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="474" id="{4B99EF7C-6DA7-4695-985F-09E6D33CAB3D}">
+            <xm:f>MATCH($F3,MasterData!$A$36:$A$37,0)&gt;0</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00CC00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="475" id="{E842F24B-287F-4429-A8AF-4CD93A18BE8A}">
+            <xm:f>$F3=MasterData!$A$30</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1" tint="0.34998626667073579"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="476" id="{E6A830D4-DD95-4303-B3FA-9AC4D50AA1D8}">
+            <xm:f>MATCH($F3,MasterData!$A$32:$A$35,0)&gt;0</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF0099FF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F3</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="257" id="{FFCCB9C1-BB00-48E3-A2A5-73897C425504}">
             <xm:f>#REF!=MasterData!$A$47</xm:f>
@@ -8517,7 +6548,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H3:H17</xm:sqref>
+          <xm:sqref>H3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4" id="{ABFD7EB7-77B2-4869-9356-65B40958DAE4}">
@@ -8610,7 +6641,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I3:J18</xm:sqref>
+          <xm:sqref>I3:J4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="11" id="{D47273A9-7B89-4482-ACA8-E1F0B0B05473}">
@@ -8699,10 +6730,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K3:L17</xm:sqref>
+          <xm:sqref>K3:L3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="473" id="{342793A4-491D-45A5-9776-2802D4AD1877}">
+          <x14:cfRule type="iconSet" priority="505" id="{342793A4-491D-45A5-9776-2802D4AD1877}">
             <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8718,64 +6749,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G3:G17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{F461081A-48E1-45A9-9CA0-F3FD9C4E6EB5}">
-            <xm:f>$F3=MasterData!$A$31</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="474" id="{4B99EF7C-6DA7-4695-985F-09E6D33CAB3D}">
-            <xm:f>MATCH($F3,MasterData!$A$36:$A$37,0)&gt;0</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00CC00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="475" id="{E842F24B-287F-4429-A8AF-4CD93A18BE8A}">
-            <xm:f>$F3=MasterData!$A$30</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="1" tint="0.34998626667073579"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor theme="6"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="476" id="{E6A830D4-DD95-4303-B3FA-9AC4D50AA1D8}">
-            <xm:f>MATCH($F3,MasterData!$A$32:$A$35,0)&gt;0</xm:f>
-            <x14:dxf>
-              <font>
-                <b/>
-                <i val="0"/>
-                <color theme="0"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF0099FF"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>F3:F17</xm:sqref>
+          <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8805,7 +6779,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="135" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="16" t="str">
@@ -8838,19 +6812,19 @@
       </c>
       <c r="J2" s="36">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D2&amp;"l"&amp;J$8,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
     </row>
     <row r="3" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="142"/>
+      <c r="B3" s="135"/>
       <c r="C3" s="18" t="str">
         <f>MasterData!$A$16</f>
         <v>Significant</v>
@@ -8865,11 +6839,11 @@
       </c>
       <c r="F3" s="43">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D$3&amp;"l"&amp;F$8,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="39">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D$3&amp;"l"&amp;G$8,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="40">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D3&amp;"l"&amp;H$8,TBL_RiskLog[BL.showInMatrix])</f>
@@ -8881,7 +6855,7 @@
       </c>
       <c r="J3" s="38">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D3&amp;"l"&amp;J$8,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="13" t="str">
         <f>MasterData!A21</f>
@@ -8909,7 +6883,7 @@
       </c>
     </row>
     <row r="4" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="142"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="20" t="str">
         <f>MasterData!$A$15</f>
         <v>Moderate</v>
@@ -8924,15 +6898,15 @@
       </c>
       <c r="F4" s="43">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D$4&amp;"l"&amp;F$8,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="44">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D$4&amp;"l"&amp;G$8,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="40">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D4&amp;"l"&amp;H$8,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="40">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D4&amp;"l"&amp;I$8,TBL_RiskLog[BL.showInMatrix])</f>
@@ -8940,35 +6914,35 @@
       </c>
       <c r="J4" s="38">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D4&amp;"l"&amp;J$8,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="13">
         <f>SUMIF(TBL_RiskLog[Severity],$L$3,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="7">
         <f>SUMIF(TBL_RiskLog[Severity],$M$3,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="8">
         <f>SUMIF(TBL_RiskLog[Severity],$N$3,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O4" s="6">
         <f>SUMIF(TBL_RiskLog[Severity],$O$3,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P4" s="15">
         <f>SUMIF(TBL_RiskLog[Severity],$P$3,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="5">
         <f>SUMIF(TBL_RiskLog[Severity],$Q$3,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="142"/>
+      <c r="B5" s="135"/>
       <c r="C5" s="22" t="str">
         <f>MasterData!$A$14</f>
         <v>Minor</v>
@@ -8983,7 +6957,7 @@
       </c>
       <c r="F5" s="47">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D$5&amp;"l"&amp;F$8,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="44">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D$5&amp;"l"&amp;G$8,TBL_RiskLog[BL.showInMatrix])</f>
@@ -8991,11 +6965,11 @@
       </c>
       <c r="H5" s="44">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D5&amp;"l"&amp;H$8,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="40">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D5&amp;"l"&amp;I$8,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="41">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D5&amp;"l"&amp;J$8,TBL_RiskLog[BL.showInMatrix])</f>
@@ -9003,7 +6977,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="142"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="24" t="str">
         <f>MasterData!$A$13</f>
         <v>Insignificant</v>
@@ -9038,7 +7012,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="142"/>
+      <c r="B7" s="135"/>
       <c r="C7" s="9" t="str">
         <f>MasterData!$A$12</f>
         <v>Unspecified</v>
@@ -9049,7 +7023,7 @@
       </c>
       <c r="E7" s="48">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D$7&amp;"l"&amp;E$8,TBL_RiskLog[BL.showInMatrix])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="47">
         <f>SUMIF(TBL_RiskLog[BL.coordinates],"i"&amp;$D$7&amp;"l"&amp;F$8,TBL_RiskLog[BL.showInMatrix])</f>
@@ -9073,9 +7047,9 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="142"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="11">
         <f>MasterData!$B$3</f>
         <v>0</v>
@@ -9102,9 +7076,9 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="142"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
       <c r="E9" s="12" t="str">
         <f>MasterData!$A$3</f>
         <v>Unspecified</v>
@@ -9132,16 +7106,16 @@
     </row>
     <row r="10" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
-      <c r="C10" s="143" t="s">
+      <c r="C10" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9191,13 +7165,13 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B2:I8"/>
+  <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9212,188 +7186,80 @@
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="104" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="102">
-        <v>44470</v>
-      </c>
-      <c r="C3" s="108">
-        <v>3</v>
-      </c>
-      <c r="D3" s="84">
-        <v>2</v>
-      </c>
-      <c r="E3" s="84">
-        <v>3</v>
-      </c>
-      <c r="F3" s="84">
-        <v>4</v>
-      </c>
-      <c r="G3" s="84">
-        <v>5</v>
-      </c>
-      <c r="H3" s="66">
+      <c r="B3" s="96">
         <v>1</v>
       </c>
-      <c r="I3" s="111">
+      <c r="C3" s="102">
+        <v>1</v>
+      </c>
+      <c r="D3" s="80">
+        <v>1</v>
+      </c>
+      <c r="E3" s="80">
+        <v>1</v>
+      </c>
+      <c r="F3" s="80">
+        <v>1</v>
+      </c>
+      <c r="G3" s="80">
+        <v>1</v>
+      </c>
+      <c r="H3" s="63">
+        <v>1</v>
+      </c>
+      <c r="I3" s="105">
         <f>SUM(Tabelle6[[#This Row],[Unspecified]:[Critical]])</f>
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="102">
-        <v>44501</v>
-      </c>
-      <c r="C4" s="108">
+      <c r="B4" s="96">
+        <v>32</v>
+      </c>
+      <c r="C4" s="102">
         <v>1</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="80">
         <v>1</v>
       </c>
-      <c r="E4" s="84">
-        <v>3</v>
-      </c>
-      <c r="F4" s="84">
-        <v>8</v>
-      </c>
-      <c r="G4" s="84">
-        <v>3</v>
-      </c>
-      <c r="H4" s="66">
+      <c r="E4" s="80">
         <v>1</v>
       </c>
-      <c r="I4" s="111">
+      <c r="F4" s="80">
+        <v>1</v>
+      </c>
+      <c r="G4" s="80">
+        <v>1</v>
+      </c>
+      <c r="H4" s="63">
+        <v>1</v>
+      </c>
+      <c r="I4" s="105">
         <f>SUM(Tabelle6[[#This Row],[Unspecified]:[Critical]])</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="102">
-        <v>44531</v>
-      </c>
-      <c r="C5" s="108">
-        <v>0</v>
-      </c>
-      <c r="D5" s="84">
-        <v>2</v>
-      </c>
-      <c r="E5" s="84">
-        <v>5</v>
-      </c>
-      <c r="F5" s="84">
         <v>6</v>
-      </c>
-      <c r="G5" s="84">
-        <v>2</v>
-      </c>
-      <c r="H5" s="66">
-        <v>0</v>
-      </c>
-      <c r="I5" s="111">
-        <f>SUM(Tabelle6[[#This Row],[Unspecified]:[Critical]])</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="102">
-        <v>44562</v>
-      </c>
-      <c r="C6" s="108">
-        <v>0</v>
-      </c>
-      <c r="D6" s="84">
-        <v>3</v>
-      </c>
-      <c r="E6" s="84">
-        <v>4</v>
-      </c>
-      <c r="F6" s="84">
-        <v>6</v>
-      </c>
-      <c r="G6" s="84">
-        <v>1</v>
-      </c>
-      <c r="H6" s="66">
-        <v>0</v>
-      </c>
-      <c r="I6" s="111">
-        <f>SUM(Tabelle6[[#This Row],[Unspecified]:[Critical]])</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="102">
-        <v>44593</v>
-      </c>
-      <c r="C7" s="108">
-        <v>0</v>
-      </c>
-      <c r="D7" s="84">
-        <v>2</v>
-      </c>
-      <c r="E7" s="84">
-        <v>5</v>
-      </c>
-      <c r="F7" s="84">
-        <v>4</v>
-      </c>
-      <c r="G7" s="84">
-        <v>2</v>
-      </c>
-      <c r="H7" s="66">
-        <v>1</v>
-      </c>
-      <c r="I7" s="111">
-        <f>SUM(Tabelle6[[#This Row],[Unspecified]:[Critical]])</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="102">
-        <v>44621</v>
-      </c>
-      <c r="C8" s="108">
-        <v>1</v>
-      </c>
-      <c r="D8" s="84">
-        <v>1</v>
-      </c>
-      <c r="E8" s="84">
-        <v>5</v>
-      </c>
-      <c r="F8" s="84">
-        <v>4</v>
-      </c>
-      <c r="G8" s="84">
-        <v>2</v>
-      </c>
-      <c r="H8" s="84">
-        <v>1</v>
-      </c>
-      <c r="I8" s="145">
-        <f>SUM(Tabelle6[[#This Row],[Unspecified]:[Critical]])</f>
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -9410,13 +7276,13 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9442,26 +7308,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="87.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="123" t="s">
-        <v>99</v>
+      <c r="A1" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="117" t="s">
+        <v>69</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D1" s="50" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="F1" s="50" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="H1" s="50" t="s">
         <v>8</v>
@@ -9476,7 +7342,7 @@
         <v>65</v>
       </c>
       <c r="L1" s="50" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="M1" s="50" t="s">
         <v>55</v>
@@ -9485,762 +7351,88 @@
         <v>52</v>
       </c>
       <c r="O1" s="50" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="P1" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q1" s="124" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" s="125" t="s">
-        <v>117</v>
+        <v>76</v>
+      </c>
+      <c r="Q1" s="118" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="119" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="113">
-        <v>10156</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="87" t="s">
+      <c r="B2" s="107">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="114">
-        <v>44594</v>
-      </c>
-      <c r="M2" s="114"/>
-      <c r="N2" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87" t="s">
+      <c r="L2" s="108">
+        <v>44597</v>
+      </c>
+      <c r="M2" s="108"/>
+      <c r="N2" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="117" t="s">
+      <c r="Q2" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="119">
+      <c r="R2" s="113">
         <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="113">
-        <v>10157</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="114">
-        <v>44594</v>
-      </c>
-      <c r="M3" s="114"/>
-      <c r="N3" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="119">
-        <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="113">
-        <v>10158</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="114">
-        <v>44594</v>
-      </c>
-      <c r="M4" s="114"/>
-      <c r="N4" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="119">
-        <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="113">
-        <v>10159</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="114">
-        <v>44594</v>
-      </c>
-      <c r="M5" s="114">
-        <v>44594</v>
-      </c>
-      <c r="N5" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="119">
-        <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="113">
-        <v>10160</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="114">
-        <v>44594</v>
-      </c>
-      <c r="M6" s="114"/>
-      <c r="N6" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="119">
-        <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="121" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="113">
-        <v>10275</v>
-      </c>
-      <c r="C7" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="114">
-        <v>44973</v>
-      </c>
-      <c r="M7" s="114"/>
-      <c r="N7" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="R7" s="119">
-        <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="113">
-        <v>10276</v>
-      </c>
-      <c r="C8" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="114">
-        <v>44973</v>
-      </c>
-      <c r="M8" s="114"/>
-      <c r="N8" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="R8" s="119">
-        <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="113">
-        <v>10277</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="87"/>
-      <c r="K9" s="114" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="114">
-        <v>44973</v>
-      </c>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" s="117" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="119">
-        <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="121" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="113">
-        <v>10278</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="114">
-        <v>44973</v>
-      </c>
-      <c r="M10" s="114"/>
-      <c r="N10" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="119">
-        <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="113">
-        <v>10279</v>
-      </c>
-      <c r="C11" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="114">
-        <v>44973</v>
-      </c>
-      <c r="M11" s="114"/>
-      <c r="N11" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="R11" s="119">
-        <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="121" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="113">
-        <v>10280</v>
-      </c>
-      <c r="C12" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="114">
-        <v>44973</v>
-      </c>
-      <c r="M12" s="114"/>
-      <c r="N12" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" s="119">
-        <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="113">
-        <v>10281</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="114">
-        <v>44973</v>
-      </c>
-      <c r="M13" s="114"/>
-      <c r="N13" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q13" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" s="119">
-        <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="121" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="113">
-        <v>10282</v>
-      </c>
-      <c r="C14" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="114">
-        <v>44974</v>
-      </c>
-      <c r="M14" s="114"/>
-      <c r="N14" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" s="119">
-        <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="121" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="113">
-        <v>10283</v>
-      </c>
-      <c r="C15" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="114">
-        <v>44974</v>
-      </c>
-      <c r="M15" s="114"/>
-      <c r="N15" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="119">
-        <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="121" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="113">
-        <v>10284</v>
-      </c>
-      <c r="C16" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="114">
-        <v>44974</v>
-      </c>
-      <c r="M16" s="114"/>
-      <c r="N16" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q16" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="R16" s="119">
-        <f>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="122"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="120"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="114"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
-  <conditionalFormatting sqref="R2:R16">
+  <phoneticPr fontId="34" type="noConversion"/>
+  <conditionalFormatting sqref="R2">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$R2=0</formula>
     </cfRule>
@@ -10257,19 +7449,19 @@
           <x14:formula1>
             <xm:f>MasterData!$A$3:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q16</xm:sqref>
+          <xm:sqref>Q2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C5070B1A-66A9-45C4-8121-7AF03B682D31}">
           <x14:formula1>
             <xm:f>MasterData!$A$12:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P16</xm:sqref>
+          <xm:sqref>P2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EACF6659-F515-431D-8101-66066C66CF7F}">
           <x14:formula1>
             <xm:f>MasterData!$A$21:$A$26</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K16</xm:sqref>
+          <xm:sqref>K2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10293,12 +7485,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
-        <v>112</v>
+      <c r="A2" s="106" t="s">
+        <v>81</v>
       </c>
       <c r="B2">
         <f>COUNTIFS(TBL_RiskLog[Key],"&lt;&gt;",TBL_RiskLog[BL.existsInExport],"=0")</f>
@@ -10310,8 +7502,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
-        <v>113</v>
+      <c r="A3" s="106" t="s">
+        <v>82</v>
       </c>
       <c r="B3">
         <f>COUNTIFS(EXP_Risks[issueKey],"&lt;&gt;",EXP_Risks[BL.existsInRiskLog],"=0")</f>
@@ -10323,8 +7515,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="112" t="s">
-        <v>114</v>
+      <c r="A4" s="106" t="s">
+        <v>83</v>
       </c>
       <c r="B4" t="str">
         <f>IF($B$2+$B$3&gt;0,"Warning: " &amp; $C$2 &amp; IF(AND($B$2&gt;0,$B$3&gt;0)," and ","") &amp; $C$3 &amp; ".","")</f>
@@ -10375,7 +7567,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -10389,7 +7581,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -10532,7 +7724,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -10842,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -10857,7 +8049,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -10917,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -10932,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -10947,7 +8139,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -11007,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -11022,7 +8214,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">

--- a/Risk Log.xlsx
+++ b/Risk Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\GitHub\risk-log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D6704-D3A3-4FFA-9540-5AAA2CF2A34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721C4A93-D103-4ADC-A8CC-7ED2CE005D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2087,6 +2087,60 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2124,8 +2178,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2136,13 +2188,23 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="hair">
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
           <color auto="1"/>
         </left>
         <right/>
         <top/>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2166,11 +2228,25 @@
         <left style="hair">
           <color auto="1"/>
         </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
         <right style="hair">
           <color auto="1"/>
         </right>
         <top/>
         <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2202,6 +2278,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2230,6 +2322,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2258,6 +2366,23 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2286,6 +2411,23 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2314,6 +2456,23 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2342,6 +2501,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2370,6 +2545,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2398,6 +2589,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2426,6 +2633,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2454,6 +2677,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2482,6 +2721,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2510,6 +2765,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2538,6 +2809,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2555,12 +2842,30 @@
         <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
         <right style="hair">
           <color auto="1"/>
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2582,7 +2887,7 @@
       </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="thick">
+        <right style="hair">
           <color auto="1"/>
         </right>
         <top/>
@@ -2590,64 +2895,28 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2658,282 +2927,13 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
           <color auto="1"/>
         </right>
         <top/>
         <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="hair">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -5446,7 +5446,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> (https://github.com/bks07/risk-log) and write a Medium article to share it with others. You can find the article "Easy Risk Management with Jira" at ... There, you can find everything you need to work with this file.</a:t>
+            <a:t> (https://github.com/bks07/risk-log) and write a Medium article to share it with others. You can find the article "Easy Risk Management with Jira, Confluence, and Excel" at https://medium.com/agileinsider/easy-risk-management-with-jira-confluence-and-excel-c7b2dd13f848. There, you can find everything you need to work with this file.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:solidFill>
@@ -5833,24 +5833,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="EXP_Risks" displayName="EXP_Risks" ref="A1:R3" totalsRowCount="1" headerRowDxfId="83" totalsRowDxfId="81" tableBorderDxfId="82">
   <autoFilter ref="A1:R2" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="issueKey" dataDxfId="80" totalsRowDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{AD6A686B-8F8B-4FBE-B181-B817BB14804F}" name="issueID" dataDxfId="79" totalsRowDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{9CC9F1D9-CD69-4790-A219-2EFAA2BFCA2D}" name="issueType" dataDxfId="78" totalsRowDxfId="42"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="Reporter" dataDxfId="77" totalsRowDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{66525FB4-7D9E-4BDB-8167-3CE5128D4A64}" name="Reporter ID" dataDxfId="76" totalsRowDxfId="40"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="Assignee" dataDxfId="75" totalsRowDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{F3D52168-82EC-47B5-8E46-99B870FCF857}" name="Assignee ID" dataDxfId="74" totalsRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Summary" dataDxfId="73" totalsRowDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Status" dataDxfId="72" totalsRowDxfId="36"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="Resolution" dataDxfId="71" totalsRowDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{2CE72620-5AA0-409F-9521-C74F80C796B3}" name="Priority" dataDxfId="70" totalsRowDxfId="34"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="Created" dataDxfId="69" totalsRowDxfId="33"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="Resolved" dataDxfId="68" totalsRowDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{EA48B66D-5068-4E9E-80EA-183BE54B7FB5}" name="Flagged" dataDxfId="67" totalsRowDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{B8D55795-6D07-42AC-AB88-61EC4671F14F}" name="Labels" dataDxfId="66" totalsRowDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="field::impact" dataDxfId="65" totalsRowDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="field::likelihood" dataDxfId="64" totalsRowDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="BL.existsInRiskLog" dataDxfId="63" totalsRowDxfId="27">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="issueKey" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="8" xr3:uid="{AD6A686B-8F8B-4FBE-B181-B817BB14804F}" name="issueID" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="9" xr3:uid="{9CC9F1D9-CD69-4790-A219-2EFAA2BFCA2D}" name="issueType" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="Reporter" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{66525FB4-7D9E-4BDB-8167-3CE5128D4A64}" name="Reporter ID" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="Assignee" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="11" xr3:uid="{F3D52168-82EC-47B5-8E46-99B870FCF857}" name="Assignee ID" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Summary" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Status" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="Resolution" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{2CE72620-5AA0-409F-9521-C74F80C796B3}" name="Priority" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="Created" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="Resolved" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{EA48B66D-5068-4E9E-80EA-183BE54B7FB5}" name="Flagged" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="13" xr3:uid="{B8D55795-6D07-42AC-AB88-61EC4671F14F}" name="Labels" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="field::impact" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="field::likelihood" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="BL.existsInRiskLog" dataDxfId="46" totalsRowDxfId="45">
       <calculatedColumnFormula>IF(EXP_Risks[[#This Row],[issueKey]]&lt;&gt;"",COUNTIF(TBL_RiskLog[Key],EXP_Risks[[#This Row],[issueKey]]),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5859,36 +5859,36 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="MD_Impact" displayName="MD_Impact" ref="A11:C17" totalsRowShown="0" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="MD_Impact" displayName="MD_Impact" ref="A11:C17" totalsRowShown="0" dataDxfId="44">
   <autoFilter ref="A11:C17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Order" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Order" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="MD_Likelihood" displayName="MD_Likelihood" ref="A2:C8" totalsRowShown="0" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="MD_Likelihood" displayName="MD_Likelihood" ref="A2:C8" totalsRowShown="0" dataDxfId="40">
   <autoFilter ref="A2:C8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Order" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Order" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="MD_RiskStrategies" displayName="MD_RiskStrategies" ref="A52:C56" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="MD_RiskStrategies" displayName="MD_RiskStrategies" ref="A52:C56" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A52:C56" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Order" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Order" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5910,18 +5910,18 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="MD_SeverityMapping" displayName="MD_SeverityMapping" ref="A59:D95" totalsRowShown="0" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="MD_SeverityMapping" displayName="MD_SeverityMapping" ref="A59:D95" totalsRowShown="0" dataDxfId="31">
   <autoFilter ref="A59:D95" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:E61">
     <sortCondition ref="A2:A26"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Coordinates" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Coordinates" dataDxfId="30">
       <calculatedColumnFormula>"i"&amp;MD_SeverityMapping[[#This Row],[Impact]]&amp;"l"&amp;MD_SeverityMapping[[#This Row],[Likelihood]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Impact" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Likelihood" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Severity" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Impact" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Likelihood" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Severity" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6211,7 +6211,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6516,6 +6516,25 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>F3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="505" id="{342793A4-491D-45A5-9776-2802D4AD1877}">
+            <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="257" id="{FFCCB9C1-BB00-48E3-A2A5-73897C425504}">
@@ -6732,25 +6751,6 @@
           </x14:cfRule>
           <xm:sqref>K3:L3</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="505" id="{342793A4-491D-45A5-9776-2802D4AD1877}">
-            <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>G3</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -8579,7 +8579,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
